--- a/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -509,16 +509,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -605,16 +605,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -733,16 +733,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -765,16 +765,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -829,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -861,16 +861,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -925,16 +925,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1066,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1098,16 +1098,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1130,16 +1130,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1450,16 +1450,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1623,16 +1623,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1655,16 +1655,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
       <c r="D10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1975,16 +1975,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2116,16 +2116,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2148,16 +2148,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2180,16 +2180,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2212,16 +2212,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2308,16 +2308,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2381,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>69</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2477,7 +2477,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2500,16 +2500,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="C16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -2580,13 +2580,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2673,16 +2673,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C5">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2705,16 +2705,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2737,16 +2737,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2804,13 +2804,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2833,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C10">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         <v>69</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3002,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3025,16 +3025,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3358,16 +3358,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3550,16 +3550,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3732,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>37</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -4052,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4084,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4225,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -4257,7 +4257,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -4577,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4600,16 +4600,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -4782,7 +4782,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -5211,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5234,16 +5234,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -5266,16 +5266,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -5298,16 +5298,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -5330,16 +5330,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5435,7 +5435,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5458,16 +5458,16 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
       <c r="D10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -5490,16 +5490,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -5522,16 +5522,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -5554,16 +5554,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -5586,16 +5586,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -5627,7 +5627,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -5650,16 +5650,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -5727,16 +5727,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5791,16 +5791,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -5832,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5864,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5887,7 +5887,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -5896,7 +5896,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5919,16 +5919,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5951,16 +5951,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6024,7 +6024,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -6152,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6175,16 +6175,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -6252,16 +6252,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6316,16 +6316,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -6357,7 +6357,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -6421,7 +6421,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -6444,16 +6444,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>87</v>
@@ -6476,16 +6476,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>39</v>
@@ -6517,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6700,16 +6700,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>52</v>
@@ -6777,16 +6777,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -6818,7 +6818,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6841,16 +6841,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -6873,16 +6873,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C5">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -6905,16 +6905,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -6937,16 +6937,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C7">
         <v>39</v>
       </c>
       <c r="D7">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -6969,16 +6969,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -7001,16 +7001,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -7033,16 +7033,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C10">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -7065,16 +7065,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -7106,7 +7106,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -7161,16 +7161,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -7193,16 +7193,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -7225,16 +7225,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -7302,16 +7302,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -7343,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -7398,16 +7398,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C5">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -7430,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -7462,16 +7462,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -7494,16 +7494,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -7526,16 +7526,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -7558,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C10">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -7590,16 +7590,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -7686,16 +7686,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -7718,16 +7718,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C15">
         <v>36</v>
       </c>
       <c r="D15">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -7750,16 +7750,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7868,7 +7868,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -7932,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>112</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G16">
         <v>10</v>

--- a/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -509,16 +509,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -605,16 +605,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -765,16 +765,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -829,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -861,16 +861,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -925,16 +925,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1066,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1107,7 +1107,7 @@
         <v>81</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1450,16 +1450,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1623,16 +1623,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>106</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1664,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1975,16 +1975,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2116,16 +2116,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2148,16 +2148,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2189,7 +2189,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2308,16 +2308,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D10">
         <v>39</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2381,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>69</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2477,7 +2477,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2500,16 +2500,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="D16">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -2580,13 +2580,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2673,16 +2673,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2714,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2804,13 +2804,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2833,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C10">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         <v>69</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3002,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3025,16 +3025,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3166,16 +3166,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3550,16 +3550,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3732,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>37</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -4052,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4084,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4216,16 +4216,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -4257,7 +4257,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -4577,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4600,16 +4600,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -4782,7 +4782,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -5211,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5234,16 +5234,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -5266,16 +5266,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -5307,7 +5307,7 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -5330,16 +5330,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5435,7 +5435,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5467,7 +5467,7 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -5490,16 +5490,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -5522,16 +5522,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -5554,16 +5554,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -5586,16 +5586,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -5627,7 +5627,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -5650,16 +5650,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -5727,16 +5727,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5791,16 +5791,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -5832,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5864,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5887,7 +5887,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -5896,7 +5896,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5919,16 +5919,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5951,16 +5951,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6024,7 +6024,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -6152,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6175,16 +6175,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -6252,16 +6252,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6316,16 +6316,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -6357,7 +6357,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -6421,7 +6421,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -6444,16 +6444,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>87</v>
@@ -6476,16 +6476,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>39</v>
@@ -6517,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6700,16 +6700,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>52</v>
@@ -6777,16 +6777,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -6818,7 +6818,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6841,16 +6841,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -6873,16 +6873,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -6905,16 +6905,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -6937,16 +6937,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C7">
         <v>39</v>
       </c>
       <c r="D7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -6969,16 +6969,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -7001,16 +7001,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -7033,16 +7033,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C10">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -7065,16 +7065,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -7106,7 +7106,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -7161,16 +7161,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -7193,16 +7193,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -7225,16 +7225,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -7302,16 +7302,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -7343,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -7398,16 +7398,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -7430,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -7462,16 +7462,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -7494,16 +7494,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -7526,16 +7526,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -7558,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C10">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -7590,16 +7590,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -7686,16 +7686,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -7718,16 +7718,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>36</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -7750,16 +7750,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7868,7 +7868,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -7932,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>112</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G16">
         <v>10</v>

--- a/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
@@ -4680,7 +4680,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>326</v>
@@ -4741,13 +4741,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>307</v>
@@ -4773,13 +4773,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>326</v>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4837,13 +4837,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>333</v>
@@ -4872,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -4933,13 +4933,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>326</v>
@@ -4965,13 +4965,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>327</v>
@@ -5029,13 +5029,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>326</v>
@@ -5061,13 +5061,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>326</v>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>1</v>

--- a/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>115</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -614,7 +614,7 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -774,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -806,7 +806,7 @@
         <v>93</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -838,7 +838,7 @@
         <v>126</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -870,7 +870,7 @@
         <v>125</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -934,7 +934,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1075,7 +1075,7 @@
         <v>51</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1107,7 +1107,7 @@
         <v>81</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1459,7 +1459,7 @@
         <v>92</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1600,7 +1600,7 @@
         <v>53</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1632,7 +1632,7 @@
         <v>151</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1664,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1984,7 +1984,7 @@
         <v>96</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2125,7 +2125,7 @@
         <v>141</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2148,16 +2148,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="C5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2189,7 +2189,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2212,16 +2212,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2308,16 +2308,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2381,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>69</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2477,7 +2477,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2500,16 +2500,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="C16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="D16">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -2580,13 +2580,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2673,16 +2673,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2708,13 +2708,13 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2737,16 +2737,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2804,13 +2804,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2833,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="D10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2868,13 +2868,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         <v>69</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2996,13 +2996,13 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>38</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3025,16 +3025,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3175,7 +3175,7 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3732,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>37</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -4052,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4084,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4225,7 +4225,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -4257,7 +4257,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -4577,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4609,7 +4609,7 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -4782,7 +4782,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -5211,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5243,7 +5243,7 @@
         <v>115</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -5275,7 +5275,7 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -5307,7 +5307,7 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -5339,7 +5339,7 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5435,7 +5435,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5467,7 +5467,7 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -5499,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -5531,7 +5531,7 @@
         <v>98</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -5563,7 +5563,7 @@
         <v>129</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -5595,7 +5595,7 @@
         <v>187</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -5627,7 +5627,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -5659,7 +5659,7 @@
         <v>97</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -5736,7 +5736,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5800,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -5832,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5864,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5896,7 +5896,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5928,7 +5928,7 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5960,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6024,7 +6024,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -6152,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6184,7 +6184,7 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -6261,7 +6261,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6325,7 +6325,7 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -6357,7 +6357,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -6421,7 +6421,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -6453,7 +6453,7 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>87</v>
@@ -6485,7 +6485,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>39</v>
@@ -6517,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6709,7 +6709,7 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>52</v>
@@ -6777,16 +6777,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -6818,7 +6818,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6841,16 +6841,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -6873,16 +6873,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -6905,16 +6905,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -6937,16 +6937,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -6969,16 +6969,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -7001,16 +7001,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -7033,16 +7033,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -7065,16 +7065,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -7106,7 +7106,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -7161,16 +7161,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -7193,16 +7193,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -7225,16 +7225,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -7302,16 +7302,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -7343,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -7398,16 +7398,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -7430,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -7462,16 +7462,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -7494,16 +7494,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -7526,16 +7526,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -7558,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -7590,16 +7590,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -7686,16 +7686,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -7718,16 +7718,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -7750,16 +7750,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7868,7 +7868,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -7932,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8083,16 +8083,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>10</v>

--- a/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="25">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -1591,13 +1593,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>258</v>
@@ -1623,13 +1625,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>189</v>
@@ -1783,13 +1785,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>11</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
       </c>
       <c r="E10">
         <v>138</v>
@@ -1975,13 +1977,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>254</v>
@@ -2052,13 +2054,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>81</v>
@@ -2116,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>258</v>
@@ -2148,13 +2150,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>189</v>
@@ -2215,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>33</v>
@@ -2276,13 +2278,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>92</v>
@@ -2314,7 +2316,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="E10">
         <v>138</v>
@@ -2468,13 +2470,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>248</v>
@@ -2500,13 +2502,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="C16">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <v>254</v>
@@ -4107,6 +4109,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>81</v>
+      </c>
+      <c r="G2">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>396</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>175</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>381</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>258</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>393</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>189</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>388</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>276</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>402</v>
+      </c>
+      <c r="L6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>273</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>374</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>409</v>
+      </c>
+      <c r="L8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>374</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>138</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>388</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>276</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>226</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>388</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>216</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>388</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>284</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>388</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>248</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>402</v>
+      </c>
+      <c r="L15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>254</v>
+      </c>
+      <c r="G16">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>399</v>
+      </c>
+      <c r="L16">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>81</v>
+      </c>
+      <c r="G2">
+        <v>211</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>431</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>175</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>192</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>191</v>
+      </c>
+      <c r="E4">
+        <v>258</v>
+      </c>
+      <c r="G4">
+        <v>301</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>415</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>184</v>
+      </c>
+      <c r="C5">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <v>189</v>
+      </c>
+      <c r="G5">
+        <v>421</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>276</v>
+      </c>
+      <c r="G6">
+        <v>139</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>182</v>
+      </c>
+      <c r="E7">
+        <v>273</v>
+      </c>
+      <c r="G7">
+        <v>271</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>396</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>222</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>447</v>
+      </c>
+      <c r="L8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="G9">
+        <v>210</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>415</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>138</v>
+      </c>
+      <c r="C10">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>138</v>
+      </c>
+      <c r="G10">
+        <v>424</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>119</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>118</v>
+      </c>
+      <c r="E11">
+        <v>276</v>
+      </c>
+      <c r="G11">
+        <v>124</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>226</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>195</v>
+      </c>
+      <c r="E13">
+        <v>216</v>
+      </c>
+      <c r="G13">
+        <v>77</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>211</v>
+      </c>
+      <c r="E14">
+        <v>284</v>
+      </c>
+      <c r="G14">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>248</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>183</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>182</v>
+      </c>
+      <c r="E16">
+        <v>254</v>
+      </c>
+      <c r="G16">
+        <v>309</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>447</v>
+      </c>
+      <c r="L16">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
@@ -4773,13 +5825,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>189</v>
@@ -5727,13 +6779,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>81</v>
@@ -5759,13 +6811,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>175</v>
@@ -5791,13 +6843,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>258</v>
@@ -5823,13 +6875,13 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>189</v>
@@ -5855,13 +6907,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>276</v>
@@ -5887,13 +6939,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>273</v>
@@ -5919,13 +6971,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -5951,13 +7003,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>92</v>
@@ -6015,13 +7067,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>276</v>
@@ -6047,13 +7099,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>226</v>
@@ -6079,10 +7131,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -6111,13 +7163,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>284</v>
@@ -6143,13 +7195,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>248</v>
@@ -6175,13 +7227,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>254</v>

--- a/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/3wise/0.95_worst_case.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -511,16 +511,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -543,16 +543,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -575,16 +575,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -607,16 +607,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -645,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -674,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -703,7 +703,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -735,16 +735,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -767,16 +767,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -799,16 +799,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -831,16 +831,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -863,16 +863,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -895,16 +895,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -927,16 +927,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1004,16 +1004,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1068,16 +1068,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1100,16 +1100,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1132,16 +1132,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1196,16 +1196,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1228,16 +1228,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1263,13 +1263,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1295,13 +1295,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1324,16 +1324,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1356,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1388,16 +1388,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1420,16 +1420,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1452,16 +1452,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D16">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -1529,16 +1529,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1561,16 +1561,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1593,16 +1593,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -1625,16 +1625,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -1657,16 +1657,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1689,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1753,16 +1753,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1785,16 +1785,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1820,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1849,16 +1849,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1881,16 +1881,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1913,16 +1913,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1948,13 +1948,13 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1977,16 +1977,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D16">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -2054,16 +2054,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2086,16 +2086,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2118,16 +2118,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2150,16 +2150,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2182,16 +2182,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2214,16 +2214,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2246,16 +2246,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2278,16 +2278,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2310,16 +2310,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="C10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2345,13 +2345,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2374,16 +2374,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2406,16 +2406,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2438,16 +2438,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2470,16 +2470,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2502,16 +2502,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="D16">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -2579,16 +2579,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2611,16 +2611,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2643,16 +2643,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>234</v>
@@ -2675,16 +2675,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>419</v>
@@ -2707,16 +2707,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2739,16 +2739,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2771,16 +2771,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -2803,16 +2803,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2835,16 +2835,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>443</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>374</v>
@@ -2870,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2899,16 +2899,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2931,16 +2931,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2963,16 +2963,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2995,16 +2995,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3027,16 +3027,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="D16">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>284</v>
@@ -3104,16 +3104,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3136,16 +3136,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3168,16 +3168,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3200,16 +3200,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3232,16 +3232,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3264,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3296,16 +3296,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3328,16 +3328,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3360,16 +3360,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3395,13 +3395,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3424,16 +3424,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3456,16 +3456,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3488,16 +3488,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3520,16 +3520,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3552,16 +3552,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -3632,13 +3632,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3693,16 +3693,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3725,16 +3725,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3757,16 +3757,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3792,13 +3792,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3824,13 +3824,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3853,16 +3853,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3885,16 +3885,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3917,16 +3917,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3949,16 +3949,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4013,16 +4013,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -4045,16 +4045,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4077,16 +4077,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -4154,16 +4154,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -4186,16 +4186,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4218,16 +4218,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -4250,16 +4250,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -4282,16 +4282,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -4314,16 +4314,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -4346,16 +4346,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>87</v>
@@ -4378,16 +4378,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>39</v>
@@ -4410,16 +4410,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4442,16 +4442,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -4474,16 +4474,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -4506,16 +4506,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -4538,16 +4538,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -4570,16 +4570,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4602,16 +4602,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>52</v>
@@ -4679,16 +4679,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -4711,16 +4711,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4743,16 +4743,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="D4">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -4775,16 +4775,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="C5">
-        <v>161</v>
+        <v>439</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -4807,16 +4807,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -4839,16 +4839,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>329</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -4871,16 +4871,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -4903,16 +4903,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -4935,16 +4935,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -4967,16 +4967,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="D11">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -4999,16 +4999,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5031,16 +5031,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="D13">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -5063,16 +5063,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D14">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -5095,16 +5095,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="D15">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -5127,16 +5127,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="D16">
-        <v>182</v>
+        <v>354</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -5204,16 +5204,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5236,16 +5236,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5268,16 +5268,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -5300,16 +5300,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5332,16 +5332,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5364,7 +5364,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5399,13 +5399,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5428,16 +5428,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5460,16 +5460,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -5495,13 +5495,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5524,16 +5524,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5556,16 +5556,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5588,16 +5588,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -5620,16 +5620,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5652,16 +5652,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -5732,13 +5732,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5793,16 +5793,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5825,16 +5825,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5857,16 +5857,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5889,16 +5889,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5921,16 +5921,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5985,16 +5985,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6017,16 +6017,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6049,16 +6049,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6113,16 +6113,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6145,16 +6145,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6177,16 +6177,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -6254,16 +6254,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6286,16 +6286,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -6318,16 +6318,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>49</v>
@@ -6350,16 +6350,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -6382,16 +6382,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6414,16 +6414,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6446,16 +6446,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6478,16 +6478,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -6510,16 +6510,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -6542,16 +6542,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -6574,16 +6574,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6606,16 +6606,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -6638,16 +6638,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -6670,16 +6670,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -6702,16 +6702,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>95</v>
@@ -6779,16 +6779,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6811,16 +6811,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6843,16 +6843,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -6875,16 +6875,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6907,16 +6907,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6939,16 +6939,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -6971,16 +6971,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -7003,7 +7003,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7012,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7035,16 +7035,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -7067,16 +7067,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -7099,16 +7099,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7131,16 +7131,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7163,16 +7163,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -7195,16 +7195,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -7227,16 +7227,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>45</v>
@@ -7304,16 +7304,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -7336,16 +7336,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7368,16 +7368,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -7400,16 +7400,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -7432,16 +7432,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -7464,16 +7464,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -7496,16 +7496,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>87</v>
@@ -7528,16 +7528,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>39</v>
@@ -7560,16 +7560,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -7595,13 +7595,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -7624,16 +7624,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -7656,16 +7656,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -7688,16 +7688,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -7720,16 +7720,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -7752,16 +7752,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>52</v>
@@ -7829,16 +7829,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -7861,16 +7861,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7893,16 +7893,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="D4">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -7925,16 +7925,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>439</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -7957,16 +7957,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -7989,16 +7989,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="D7">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -8021,16 +8021,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -8053,16 +8053,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -8085,16 +8085,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -8117,16 +8117,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="D11">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -8149,16 +8149,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8181,16 +8181,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>192</v>
+        <v>421</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="D13">
-        <v>192</v>
+        <v>421</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -8213,16 +8213,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D14">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -8245,16 +8245,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="D15">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -8277,16 +8277,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="D16">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -8354,16 +8354,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>211</v>
@@ -8386,16 +8386,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -8418,16 +8418,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D4">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>301</v>
@@ -8450,16 +8450,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>439</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>421</v>
@@ -8482,16 +8482,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>139</v>
@@ -8514,16 +8514,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="D7">
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>271</v>
@@ -8546,16 +8546,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>222</v>
@@ -8578,16 +8578,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -8610,16 +8610,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -8642,16 +8642,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="D11">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>124</v>
@@ -8674,16 +8674,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8706,16 +8706,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="D13">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -8738,16 +8738,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D14">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>101</v>
@@ -8770,16 +8770,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="D15">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>164</v>
@@ -8802,16 +8802,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="D16">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>309</v>
@@ -8879,16 +8879,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -8911,16 +8911,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -8943,16 +8943,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -8975,16 +8975,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -9007,16 +9007,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -9039,7 +9039,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -9074,13 +9074,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -9103,7 +9103,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -9135,16 +9135,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9170,13 +9170,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9199,16 +9199,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9231,16 +9231,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -9263,16 +9263,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -9295,16 +9295,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -9327,16 +9327,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>10</v>
